--- a/AAAGameData/DataTables/TestTable.xlsx
+++ b/AAAGameData/DataTables/TestTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>26/11/2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +766,9 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -806,6 +813,9 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -847,6 +857,20 @@
       </c>
       <c r="P6" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/AAAGameData/DataTables/TestTable.xlsx
+++ b/AAAGameData/DataTables/TestTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -291,15 +291,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26/11/2024 12:58:18</t>
-  </si>
-  <si>
-    <t>26/11/2024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>26/11/2024 15:06:49</t>
+  </si>
+  <si>
+    <t>26/11/2024 15:06:50</t>
+  </si>
+  <si>
+    <t>26/11/2024 15:06:51</t>
   </si>
 </sst>
 </file>
@@ -636,7 +634,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P5" sqref="P5:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,9 +764,6 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -809,13 +804,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -856,21 +848,25 @@
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="O7" t="b">
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
